--- a/anonymized.xlsx
+++ b/anonymized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\kls_Anonymization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E491D8-9A02-45A7-9367-BFCD36E9E915}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72DF3A-CED1-4D19-B73A-1F403985EFEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>SALARY</t>
   </si>
   <si>
-    <t>***</t>
+    <t>*****</t>
   </si>
   <si>
     <t>20-21</t>
@@ -1684,8 +1684,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="51.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
